--- a/misc/marker_genes.xlsx
+++ b/misc/marker_genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanli/Desktop/scRIC_development/scRICA/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282F2DB-1DDD-524A-A3EF-DA9DA8F6AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E2F0EF-1358-0047-8468-4756A2B255F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24120" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>Cell Type</t>
-  </si>
-  <si>
     <t>KRT7</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>ALDH3B2</t>
+  </si>
+  <si>
+    <t>cellType</t>
   </si>
 </sst>
 </file>
@@ -338,12 +338,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,504 +641,504 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/misc/marker_genes.xlsx
+++ b/misc/marker_genes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanli/Desktop/scRIC_development/scRICA/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E2F0EF-1358-0047-8468-4756A2B255F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CADD42-F907-6A44-9A7D-48A74FCA6974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24120" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="4220" windowWidth="24120" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallopian Tube Markers" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     <t>ALDH3B2</t>
   </si>
   <si>
-    <t>cellType</t>
+    <t>geneType</t>
   </si>
 </sst>
 </file>
